--- a/medicine/Autisme/DesignCare/DesignCare.xlsx
+++ b/medicine/Autisme/DesignCare/DesignCare.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-DesignCare est un gala de charité organisé annuellement par HollyRod Foundation (en) depuis 1998 aux États-Unis[1]. Il a pour but premier de lever des fonds en faveur des familles de personnes atteintes d’autisme ou de Parkinson. Lors de cet évènement, des prix sont remis à des personnalités et des entreprises œuvrant dans le milieu caritatif. Un défilé de mode et une vente aux enchères closent la soirée. Le plus haut montant que cette vente s’élève à 700.000 dollars pour le gala du 27 juillet 2019[2].
-Une des particularités de cet évènement est qu’il est très sélect : majoritairement des personnalités du monde artistiques, de la médecine, politique, des affaires et des médias sont présentes. Le lieu de la manifestation n’est communiqué que dans les derniers jours précédents l’évènement[3].
-Parmi les personnalités présentes lors de cet événement, on retrouve : Raven-Symoné, Arsenio Hall, Samuel L. Jackson, Tina Knowles-Lawson, Smokey Robinson, Mason Ewing, Skai Jackson, Robi Reed (en), Donald Trump entre autres[4].
-Chaque année, la présentation est faite par Holly Robinson-Peete et son mari Rodney Peete, qui sont aussi les fondateurs de HollyRod Foundation[5].
+DesignCare est un gala de charité organisé annuellement par HollyRod Foundation (en) depuis 1998 aux États-Unis. Il a pour but premier de lever des fonds en faveur des familles de personnes atteintes d’autisme ou de Parkinson. Lors de cet évènement, des prix sont remis à des personnalités et des entreprises œuvrant dans le milieu caritatif. Un défilé de mode et une vente aux enchères closent la soirée. Le plus haut montant que cette vente s’élève à 700.000 dollars pour le gala du 27 juillet 2019.
+Une des particularités de cet évènement est qu’il est très sélect : majoritairement des personnalités du monde artistiques, de la médecine, politique, des affaires et des médias sont présentes. Le lieu de la manifestation n’est communiqué que dans les derniers jours précédents l’évènement.
+Parmi les personnalités présentes lors de cet événement, on retrouve : Raven-Symoné, Arsenio Hall, Samuel L. Jackson, Tina Knowles-Lawson, Smokey Robinson, Mason Ewing, Skai Jackson, Robi Reed (en), Donald Trump entre autres.
+Chaque année, la présentation est faite par Holly Robinson-Peete et son mari Rodney Peete, qui sont aussi les fondateurs de HollyRod Foundation.
 </t>
         </is>
       </c>
@@ -515,19 +527,90 @@
           <t>Éditions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Voici la liste des éditions organisées depuis 2012 :
-2012
-Le gala se tient au manoir de Wayne Hughes et Patricia Whitfield à Malibu[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voici la liste des éditions organisées depuis 2012 :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DesignCare</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/DesignCare</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Éditions</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le gala se tient au manoir de Wayne Hughes et Patricia Whitfield à Malibu.
 Couturier : Sue Wong
 Concert : Ricky Minor, Jeffrey Osborne et Natalie Cole
 Lauréats :
 Prix HollyRod Corporate Compassion : Gerald Storch
 Prix Prix HollyRod Champion : Toys “R” Us
-Prix Matthew T. Robinson Jr. of Courage : Brian Grant
-2013
-Le 15e DesignCare est célébré le 27 juillet 2014 à Malibu, en résidence privée[7].
+Prix Matthew T. Robinson Jr. of Courage : Brian Grant</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DesignCare</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/DesignCare</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Éditions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le 15e DesignCare est célébré le 27 juillet 2014 à Malibu, en résidence privée.
 Couturier : Rubin Singer
 Concert : Ne-Yo
 Lauréats :
@@ -535,9 +618,43 @@
 Prix HollyRod4Kids Champion : Jordan Pattillo
 Prix HollyRod Corporate Compassion : Jim Mitchell
 Prix Matthew T. Robinson, Jr. of Courage : John Ball
-Prix HollyRod Advocacy Hero Award : Michael Strautmanis
-2014
-DesignCare 2014 est organisé à The LOT Studios à Los Angeles, dans le quartier de West Hollywood[8].
+Prix HollyRod Advocacy Hero Award : Michael Strautmanis</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DesignCare</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/DesignCare</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Éditions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>DesignCare 2014 est organisé à The LOT Studios à Los Angeles, dans le quartier de West Hollywood.
 Couturier : Michael Costello
 Concert : Naturally 7
 Lauréats :
@@ -545,25 +662,127 @@
 Prix HollyRod Corporate Compassion : FedEx
 Prix HollyRod Angel on the Path : Pamela Wiley et Izzy Paskowitz
 Prix Matthew T. Robinson, Jr. of Courage : Ben Petrick
-Prix HollyRod Autism Champion : Anthony Starego
-2015
-Cette année, le gala se déroule à The LOT Studios dans le quartier West Hollywood à Los Angeles[9].
+Prix HollyRod Autism Champion : Anthony Starego</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DesignCare</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/DesignCare</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Éditions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Cette année, le gala se déroule à The LOT Studios dans le quartier West Hollywood à Los Angeles.
 Couturier : Adolfo Sanchez
 Concert : Kimberly Nichole et Jussie Smollett
 Lauréats :
 Prix HollyRod Corporate Compassion : Jessica Herrin
 Prix HollyRod Angel of Path : Amy &amp; Russell Meyerowitz
-Prix HollyRod Autism Champion : Dillan Barmache et Vincente King
-2016
-L’édition 2016 s’est tenue le 16 juillet dans la residence du boxeur Sugar Ray Leonard à Los Angeles[10].
+Prix HollyRod Autism Champion : Dillan Barmache et Vincente King</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DesignCare</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/DesignCare</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Éditions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>L’édition 2016 s’est tenue le 16 juillet dans la residence du boxeur Sugar Ray Leonard à Los Angeles.
 Couturier : Michael Costello
 Concert : Ledisi et Josh Ledet
 Lauréats :
 Prix HollyRod Angel on the Path : Chris Paul
 Prix HollyRod Corporate Compassion : Laysha Ward
-Prix HollyRod Autism Champion : Latonzia Montgomery et Kevin Keller
-2017
-Organisée le 15 juin 2017, cette édition s’est tenue chez le boxeur Sugar Ray Leonard dans le quartier de Pacific Palissades à Los Angeles. Durant la vente aux enchères, deux billets pour le Super Bowl sont à pourvoir[11].
+Prix HollyRod Autism Champion : Latonzia Montgomery et Kevin Keller</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DesignCare</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/DesignCare</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Éditions</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Organisée le 15 juin 2017, cette édition s’est tenue chez le boxeur Sugar Ray Leonard dans le quartier de Pacific Palissades à Los Angeles. Durant la vente aux enchères, deux billets pour le Super Bowl sont à pourvoir.
 Couturier : Rubin Singer
 Concert : Alisan Porter
 Lauréats :
@@ -571,9 +790,43 @@
 Prix HollyRod Humanitarian : Sugar Ray Leonard
 Prix The Angel on the Path : Karen E. Smith
 Prix HollyRod Autism Champion : Chase Coleman
-Prix HollyRod Corporate Compassion : Sesame Workshop
-2018
-Cette soirée de gala a été organisée dans une résidence privée de Malibu le 14 juillet 2018[12].
+Prix HollyRod Corporate Compassion : Sesame Workshop</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DesignCare</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/DesignCare</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Éditions</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Cette soirée de gala a été organisée dans une résidence privée de Malibu le 14 juillet 2018.
 Couturier : Pamella Roland
 Concert : Morris Day and The Time
 Lauréats :
@@ -581,9 +834,43 @@
 Prix Matthew T. Robinson, Jr. of Courage : Jesse Jackson
 Prix HollyRod Corporate Compassion : Microsoft
 Prix HollyRod Champion : Stephen Wiltshire
-Prix Karen E. Smith, Angel on a Path : Lisa Ackerman
-2019
-Le 21e DesignCare s’est tenu le samedi 27 juillet 2019 au Saddlerock Ranch à Malibu[13].
+Prix Karen E. Smith, Angel on a Path : Lisa Ackerman</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DesignCare</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/DesignCare</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Éditions</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Le 21e DesignCare s’est tenu le samedi 27 juillet 2019 au Saddlerock Ranch à Malibu.
 Concert : Cameo et Kodi Lee
 Lauréats :
 Prix HollyRod Humanitarian : Eva Longoria
@@ -591,14 +878,82 @@
 Prix Matthew T. Robinson, Jr. : Jimmy Choi
 Prix HollyRod Hero : Kalin Bennett
 Prix HollyRod Autism : Kodi Lee
-Prix HollyRod Corporate Compassion : Cigna[14]
-2022
-Le gala est organisé le 18 juin 2022 à Los Angeles au RJ's Place Vocational and Family Support Services Center, mettant Taraji P. Henson à l’honneur[15].
+Prix HollyRod Corporate Compassion : Cigna</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DesignCare</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/DesignCare</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Éditions</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Le gala est organisé le 18 juin 2022 à Los Angeles au RJ's Place Vocational and Family Support Services Center, mettant Taraji P. Henson à l’honneur.
 Musique : DJ Black Ice
 Couturier : Sergio Hudson
-Concert : Stephanie Mills[16]
-2023
-L’édition 2023 est aussi l’occasion de fêter les 25 ans de la fondation. Elle s’est tenue le 15 juillet 2023 à Los Angeles (quartier Florence-Graham) dans la salle de réception The Beehive.
+Concert : Stephanie Mills</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DesignCare</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/DesignCare</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Éditions</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>L’édition 2023 est aussi l’occasion de fêter les 25 ans de la fondation. Elle s’est tenue le 15 juillet 2023 à Los Angeles (quartier Florence-Graham) dans la salle de réception The Beehive.
 Musique : D-Nice (en)
 Couturier : Sergio Hudson
 Concert : Robin Thicke
